--- a/TrelloFramework/src/test/resources/trelloExcelFileData.xlsx
+++ b/TrelloFramework/src/test/resources/trelloExcelFileData.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayur\eclipse-workspace\TrelloFramework\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayur\git\repository2\TrelloFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE3D321-F6BD-4D1A-8E9C-2D13F50631F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2777F55E-3743-439C-98A3-BDFC2F2B2DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CreatedBoard" sheetId="2" r:id="rId2"/>
+    <sheet name="LoginUsers" sheetId="3" r:id="rId2"/>
+    <sheet name="CreatedBoard" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>trelloHomepageURL</t>
   </si>
@@ -101,6 +102,30 @@
   </si>
   <si>
     <t>createdListName</t>
+  </si>
+  <si>
+    <t>CreatedListThree</t>
+  </si>
+  <si>
+    <t>mayurmokal619@gmail.com</t>
+  </si>
+  <si>
+    <t>mayur1996max@gmail.com</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>mayurmokal</t>
+  </si>
+  <si>
+    <t>max_123456789</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -166,7 +191,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +207,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,11 +600,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9F03B-BA71-48C5-9635-8485CBFD3BD8}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F42F0391-0F3A-4406-8C5F-A710B08125FD}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7">
+        <v>9769163023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8655088432</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DD3C7857-8722-4782-A586-0EDC2047D1AE}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{A7093130-8402-45C9-A938-91F5B5F228F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C9F03B-BA71-48C5-9635-8485CBFD3BD8}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,9 +669,10 @@
     <col min="1" max="1" width="20.88671875" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -591,7 +680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -600,6 +689,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
